--- a/0. 권일님(파이썬레슨)/네이버금융_검색상위종목/결과.xlsx
+++ b/0. 권일님(파이썬레슨)/네이버금융_검색상위종목/결과.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="결과" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="결과" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,56 +443,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>씨젠</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>221,400</t>
+          <t>63,200</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52,300 </t>
+          <t xml:space="preserve"> 2,200 </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>신풍제약</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>58,000</t>
+          <t>126,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 700 </t>
+          <t xml:space="preserve"> 21,000 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>삼성전자우</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>362,500</t>
+          <t>57,400</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,000 </t>
+          <t xml:space="preserve"> 100 </t>
         </is>
       </c>
     </row>
@@ -514,39 +514,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>700,000</t>
+          <t>705,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,000 </t>
+          <t xml:space="preserve"> 13,000 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167,000</t>
+          <t>365,500</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,000 </t>
+          <t xml:space="preserve"> 8,000 </t>
         </is>
       </c>
     </row>
